--- a/MappingMatrix10xx.xlsx
+++ b/MappingMatrix10xx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29860" yWindow="-2040" windowWidth="34520" windowHeight="18360" tabRatio="500"/>
+    <workbookView xWindow="32680" yWindow="5060" windowWidth="34520" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="From States" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12347" uniqueCount="2080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12449" uniqueCount="2084">
   <si>
     <t>Alaska</t>
   </si>
@@ -6281,6 +6281,18 @@
   </si>
   <si>
     <t>10AA</t>
+  </si>
+  <si>
+    <t>Code of Alabama</t>
+  </si>
+  <si>
+    <t>Alabama Law Enforcement Agency</t>
+  </si>
+  <si>
+    <t>Alaska Statutes</t>
+  </si>
+  <si>
+    <t>Alaska DPS</t>
   </si>
 </sst>
 </file>
@@ -7029,8 +7041,8 @@
   <dimension ref="A1:P2693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1660" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1687" sqref="G1687"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N222" sqref="N222:O222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7134,8 +7146,12 @@
         <v>62</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="6"/>
+      <c r="N2" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -7168,8 +7184,12 @@
         <v>63</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="6"/>
+      <c r="N3" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.2">
@@ -7202,8 +7222,12 @@
         <v>62</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="6"/>
+      <c r="N4" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -7236,8 +7260,12 @@
         <v>63</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="6"/>
+      <c r="N5" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -7270,8 +7298,12 @@
         <v>62</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="6"/>
+      <c r="N6" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -7304,8 +7336,12 @@
         <v>62</v>
       </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="6"/>
+      <c r="N7" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -7338,8 +7374,12 @@
         <v>62</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="6"/>
+      <c r="N8" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.2">
@@ -7372,8 +7412,12 @@
         <v>62</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="6"/>
+      <c r="N9" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -7406,8 +7450,12 @@
         <v>62</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="6"/>
+      <c r="N10" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -7440,8 +7488,12 @@
         <v>62</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="6"/>
+      <c r="N11" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -7474,8 +7526,12 @@
         <v>62</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="6"/>
+      <c r="N12" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.2">
@@ -7508,8 +7564,12 @@
         <v>62</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="6"/>
+      <c r="N13" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -7542,8 +7602,12 @@
         <v>62</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="6"/>
+      <c r="N14" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P14" s="40"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.2">
@@ -7576,8 +7640,12 @@
         <v>62</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="6"/>
+      <c r="N15" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -7610,8 +7678,12 @@
         <v>62</v>
       </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="6"/>
+      <c r="N16" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -7644,8 +7716,12 @@
         <v>62</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="6"/>
+      <c r="N17" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P17" s="40"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -7678,8 +7754,12 @@
         <v>62</v>
       </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="6"/>
+      <c r="N18" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P18" s="40"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -7712,8 +7792,12 @@
         <v>63</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="6"/>
+      <c r="N19" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P19" s="40"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -7746,8 +7830,12 @@
         <v>63</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="6"/>
+      <c r="N20" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P20" s="40"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -7780,8 +7868,12 @@
         <v>63</v>
       </c>
       <c r="M21" s="3"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="6"/>
+      <c r="N21" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P21" s="40"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -7814,8 +7906,12 @@
         <v>63</v>
       </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="6"/>
+      <c r="N22" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P22" s="40"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.2">
@@ -7848,8 +7944,12 @@
         <v>63</v>
       </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="6"/>
+      <c r="N23" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P23" s="40"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.2">
@@ -7882,8 +7982,12 @@
         <v>63</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="6"/>
+      <c r="N24" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P24" s="40"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -7916,8 +8020,12 @@
         <v>63</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="6"/>
+      <c r="N25" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.2">
@@ -7950,8 +8058,12 @@
         <v>63</v>
       </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="6"/>
+      <c r="N26" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P26" s="40"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -7984,8 +8096,12 @@
         <v>63</v>
       </c>
       <c r="M27" s="3"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="6"/>
+      <c r="N27" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P27" s="40"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.2">
@@ -8018,8 +8134,12 @@
         <v>63</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="6"/>
+      <c r="N28" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P28" s="40"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -8052,8 +8172,12 @@
         <v>63</v>
       </c>
       <c r="M29" s="3"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="6"/>
+      <c r="N29" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P29" s="40"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -8086,8 +8210,12 @@
         <v>63</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="6"/>
+      <c r="N30" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P30" s="40"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -8120,8 +8248,12 @@
         <v>63</v>
       </c>
       <c r="M31" s="3"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="6"/>
+      <c r="N31" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P31" s="40"/>
     </row>
     <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.2">
@@ -8154,8 +8286,12 @@
         <v>14</v>
       </c>
       <c r="M32" s="3"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="6"/>
+      <c r="N32" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>2081</v>
+      </c>
       <c r="P32" s="40"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -8192,8 +8328,12 @@
         <v>17</v>
       </c>
       <c r="M33" s="3"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="6"/>
+      <c r="N33" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P33" s="40"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -8228,8 +8368,12 @@
         <v>17</v>
       </c>
       <c r="M34" s="3"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="6"/>
+      <c r="N34" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P34" s="40"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -8266,8 +8410,12 @@
         <v>19</v>
       </c>
       <c r="M35" s="3"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="6"/>
+      <c r="N35" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P35" s="40"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -8304,8 +8452,12 @@
         <v>19</v>
       </c>
       <c r="M36" s="3"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="6"/>
+      <c r="N36" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P36" s="40"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -8342,8 +8494,12 @@
         <v>17</v>
       </c>
       <c r="M37" s="3"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="6"/>
+      <c r="N37" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P37" s="40"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -8380,8 +8536,12 @@
         <v>17</v>
       </c>
       <c r="M38" s="3"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="6"/>
+      <c r="N38" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P38" s="40"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -8418,8 +8578,12 @@
         <v>17</v>
       </c>
       <c r="M39" s="3"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="6"/>
+      <c r="N39" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P39" s="40"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -8456,8 +8620,12 @@
         <v>17</v>
       </c>
       <c r="M40" s="3"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="6"/>
+      <c r="N40" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P40" s="40" t="s">
         <v>2077</v>
       </c>
@@ -8496,8 +8664,12 @@
         <v>17</v>
       </c>
       <c r="M41" s="3"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="6"/>
+      <c r="N41" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P41" s="40"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -8534,8 +8706,12 @@
         <v>17</v>
       </c>
       <c r="M42" s="3"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="6"/>
+      <c r="N42" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P42" s="40"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -8572,8 +8748,12 @@
         <v>17</v>
       </c>
       <c r="M43" s="3"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="6"/>
+      <c r="N43" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P43" s="40"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -8610,8 +8790,12 @@
         <v>17</v>
       </c>
       <c r="M44" s="3"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="6"/>
+      <c r="N44" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P44" s="40"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -8648,8 +8832,12 @@
         <v>17</v>
       </c>
       <c r="M45" s="3"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="6"/>
+      <c r="N45" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P45" s="40"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -8686,8 +8874,12 @@
         <v>18</v>
       </c>
       <c r="M46" s="3"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="6"/>
+      <c r="N46" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P46" s="40"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -8724,8 +8916,12 @@
         <v>20</v>
       </c>
       <c r="M47" s="3"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="6"/>
+      <c r="N47" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P47" s="40"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -8762,8 +8958,12 @@
         <v>20</v>
       </c>
       <c r="M48" s="3"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="6"/>
+      <c r="N48" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P48" s="40"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -8800,8 +9000,12 @@
         <v>20</v>
       </c>
       <c r="M49" s="3"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="6"/>
+      <c r="N49" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P49" s="40"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -8838,8 +9042,12 @@
         <v>18</v>
       </c>
       <c r="M50" s="3"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="6"/>
+      <c r="N50" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P50" s="40"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -8876,8 +9084,12 @@
         <v>18</v>
       </c>
       <c r="M51" s="3"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="6"/>
+      <c r="N51" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P51" s="40"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -8914,8 +9126,12 @@
         <v>18</v>
       </c>
       <c r="M52" s="3"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="6"/>
+      <c r="N52" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>2083</v>
+      </c>
       <c r="P52" s="40"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
